--- a/dane_wzor.xlsx
+++ b/dane_wzor.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16307E6-D683-47F8-917F-21BFF94F4B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92796B2F-0058-478E-89E3-AA47316A20B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{336D2583-5C4C-4C42-9206-61D546232E49}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="87">
   <si>
     <t>Nazwa dewelopera</t>
   </si>
@@ -136,9 +136,6 @@
     <t>Miejscowość adresu lokalu, w którym prowadzona jest sprzedaż</t>
   </si>
   <si>
-    <t>tekst</t>
-  </si>
-  <si>
     <t>Województwo lokalizacji przedsięwzięcia deweloperskiego lub zadania inwestycyjnego</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
     <t>Data od której obowiązuje cena wyszczególnionych pomieszczeń przynależnych, o których mowa w art. 2 ust. 4 ustawy z dnia 24 czerwca 1994 r. o własności lokali</t>
   </si>
   <si>
-    <t>MWRW</t>
-  </si>
-  <si>
     <t>Sp. z o.o.</t>
   </si>
   <si>
@@ -218,6 +212,75 @@
   </si>
   <si>
     <t>Poznań</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ul. Włodarska </t>
+  </si>
+  <si>
+    <t>61-625</t>
+  </si>
+  <si>
+    <t>poznański</t>
+  </si>
+  <si>
+    <t>Garbary</t>
+  </si>
+  <si>
+    <t>61-869</t>
+  </si>
+  <si>
+    <t>Czerwonak</t>
+  </si>
+  <si>
+    <t>Kliny</t>
+  </si>
+  <si>
+    <t>Trakt</t>
+  </si>
+  <si>
+    <t>16F</t>
+  </si>
+  <si>
+    <t>62-004</t>
+  </si>
+  <si>
+    <t>lokal mieszkalny</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>własność</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>61-626</t>
+  </si>
+  <si>
+    <t>61-870</t>
+  </si>
+  <si>
+    <t>62-005</t>
+  </si>
+  <si>
+    <t>MWRW Sp. z o.o.</t>
+  </si>
+  <si>
+    <t>=A3</t>
+  </si>
+  <si>
+    <t>mwrw2020@gmail.com</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>https://www.mwrw.net/kliny</t>
   </si>
 </sst>
 </file>
@@ -297,7 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -328,6 +391,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -667,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA33353A-1A07-421F-B982-7CDBB172178E}">
   <dimension ref="A1:BF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:BF5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,8 +778,8 @@
     <col min="40" max="40" width="16.6640625" customWidth="1"/>
     <col min="41" max="41" width="37.109375" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="11.77734375" customWidth="1"/>
-    <col min="43" max="43" width="17.21875" customWidth="1"/>
-    <col min="44" max="44" width="11.88671875" customWidth="1"/>
+    <col min="43" max="43" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="11.44140625" customWidth="1"/>
     <col min="46" max="46" width="16" customWidth="1"/>
     <col min="47" max="47" width="22.6640625" customWidth="1"/>
@@ -723,14 +789,14 @@
     <col min="51" max="51" width="24.88671875" customWidth="1"/>
     <col min="52" max="52" width="20.77734375" customWidth="1"/>
     <col min="53" max="53" width="20.5546875" customWidth="1"/>
-    <col min="54" max="54" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="25.44140625" customWidth="1"/>
     <col min="55" max="55" width="13.88671875" customWidth="1"/>
     <col min="56" max="56" width="13.77734375" customWidth="1"/>
     <col min="57" max="57" width="29.44140625" customWidth="1"/>
-    <col min="58" max="58" width="20.77734375" customWidth="1"/>
+    <col min="58" max="58" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="1" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" s="1" customFormat="1" ht="264" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -762,7 +828,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>23</v>
@@ -816,25 +882,25 @@
         <v>11</v>
       </c>
       <c r="AC1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="AJ1" s="2" t="s">
         <v>16</v>
@@ -846,43 +912,43 @@
         <v>14</v>
       </c>
       <c r="AM1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AP1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS1" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="AU1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="AX1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="AY1" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AZ1" s="2" t="s">
         <v>17</v>
@@ -891,7 +957,7 @@
         <v>12</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BC1" s="2" t="s">
         <v>18</v>
@@ -900,7 +966,7 @@
         <v>13</v>
       </c>
       <c r="BE1" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BF1" s="2" t="s">
         <v>15</v>
@@ -908,16 +974,16 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="E2" s="8">
         <v>9721307957</v>
@@ -925,85 +991,175 @@
       <c r="F2" s="7">
         <v>385967590</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6" t="s">
-        <v>38</v>
+      <c r="G2" s="7">
+        <v>601887712</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="7">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="7"/>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="6"/>
-      <c r="BA2" s="7"/>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="6"/>
-      <c r="BD2" s="7"/>
-      <c r="BE2" s="11"/>
-      <c r="BF2" s="6"/>
+      <c r="S2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" s="7">
+        <v>53</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL2" s="7">
+        <v>9181</v>
+      </c>
+      <c r="AM2" s="11">
+        <v>45976</v>
+      </c>
+      <c r="AN2" s="7">
+        <v>1099000</v>
+      </c>
+      <c r="AO2" s="11">
+        <v>45976</v>
+      </c>
+      <c r="AP2" s="7">
+        <v>1099000</v>
+      </c>
+      <c r="AQ2" s="11">
+        <v>45976</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB2" s="11">
+        <v>45962</v>
+      </c>
+      <c r="BC2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF2" s="12" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3" s="8">
         <v>9721307957</v>
@@ -1011,114 +1167,178 @@
       <c r="F3" s="7">
         <v>385967590</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="6" t="s">
-        <v>38</v>
+      <c r="G3" s="7">
+        <v>601887712</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="7"/>
-      <c r="AQ3" s="11"/>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="6"/>
-      <c r="AT3" s="7"/>
-      <c r="AU3" s="11"/>
-      <c r="AV3" s="6"/>
-      <c r="AW3" s="6"/>
-      <c r="AX3" s="7"/>
-      <c r="AY3" s="11"/>
-      <c r="AZ3" s="6"/>
-      <c r="BA3" s="7"/>
-      <c r="BB3" s="11"/>
-      <c r="BC3" s="6"/>
-      <c r="BD3" s="7"/>
-      <c r="BE3" s="11"/>
-      <c r="BF3" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="7">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="X3" s="7">
+        <v>53</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL3" s="7">
+        <v>8777</v>
+      </c>
+      <c r="AM3" s="11">
+        <v>45976</v>
+      </c>
+      <c r="AN3" s="7">
+        <v>1059000</v>
+      </c>
+      <c r="AO3" s="11">
+        <v>45976</v>
+      </c>
+      <c r="AP3" s="7">
+        <v>1059000</v>
+      </c>
+      <c r="AQ3" s="11">
+        <v>45976</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB3" s="11">
+        <v>45962</v>
+      </c>
+      <c r="BC3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF3" s="12" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="8">
-        <v>9721307957</v>
-      </c>
-      <c r="F4" s="7">
-        <v>385967590</v>
-      </c>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -1165,46 +1385,20 @@
       <c r="BF4" s="6"/>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="8">
-        <v>9721307957</v>
-      </c>
-      <c r="F5" s="7">
-        <v>385967590</v>
-      </c>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -1255,6 +1449,10 @@
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{54F6CA6C-AE77-412E-8071-4E1D3D1A3B3D}"/>
     <hyperlink ref="J3:J5" r:id="rId2" display="https://www.mwrw.net" xr:uid="{355080DA-8151-413C-93E6-5FE528270BE3}"/>
+    <hyperlink ref="BF2" r:id="rId3" xr:uid="{9614033A-6F86-4A14-82BF-3179FB85C442}"/>
+    <hyperlink ref="H2" r:id="rId4" xr:uid="{61D04C27-BAFA-450B-9CF1-D58DBAF9AA7B}"/>
+    <hyperlink ref="H3" r:id="rId5" xr:uid="{BBCBA58D-7C95-4FFB-8011-39A2CEF5C76C}"/>
+    <hyperlink ref="BF3" r:id="rId6" xr:uid="{680FA770-8E5E-4506-BA13-7091F299E0AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dane_wzor.xlsx
+++ b/dane_wzor.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92796B2F-0058-478E-89E3-AA47316A20B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2786AF-8803-4BC6-BC4A-289CE0BBD5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{336D2583-5C4C-4C42-9206-61D546232E49}"/>
+    <workbookView xWindow="24" yWindow="384" windowWidth="23016" windowHeight="12216" xr2:uid="{336D2583-5C4C-4C42-9206-61D546232E49}"/>
   </bookViews>
   <sheets>
     <sheet name="wzorcowy zakres danych" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="96">
   <si>
     <t>Nazwa dewelopera</t>
   </si>
@@ -271,9 +271,6 @@
     <t>MWRW Sp. z o.o.</t>
   </si>
   <si>
-    <t>=A3</t>
-  </si>
-  <si>
     <t>mwrw2020@gmail.com</t>
   </si>
   <si>
@@ -281,6 +278,36 @@
   </si>
   <si>
     <t>https://www.mwrw.net/kliny</t>
+  </si>
+  <si>
+    <t>0000942938</t>
+  </si>
+  <si>
+    <t>61-627</t>
+  </si>
+  <si>
+    <t>61-871</t>
+  </si>
+  <si>
+    <t>62-006</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0000942939</t>
+  </si>
+  <si>
+    <t>61-628</t>
+  </si>
+  <si>
+    <t>61-872</t>
+  </si>
+  <si>
+    <t>62-007</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -733,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA33353A-1A07-421F-B982-7CDBB172178E}">
   <dimension ref="A1:BF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="BK5" sqref="BK5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -995,7 +1022,7 @@
         <v>601887712</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>60</v>
@@ -1055,7 +1082,7 @@
         <v>78</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC2" s="6" t="s">
         <v>22</v>
@@ -1085,22 +1112,23 @@
         <v>75</v>
       </c>
       <c r="AL2" s="7">
-        <v>9181</v>
+        <f>AN2/118.98</f>
+        <v>9236.8465288283751</v>
       </c>
       <c r="AM2" s="11">
-        <v>45976</v>
+        <v>45992</v>
       </c>
       <c r="AN2" s="7">
         <v>1099000</v>
       </c>
       <c r="AO2" s="11">
-        <v>45976</v>
+        <v>45992</v>
       </c>
       <c r="AP2" s="7">
         <v>1099000</v>
       </c>
       <c r="AQ2" s="11">
-        <v>45976</v>
+        <v>45992</v>
       </c>
       <c r="AR2" s="6" t="s">
         <v>78</v>
@@ -1145,7 +1173,7 @@
         <v>78</v>
       </c>
       <c r="BF2" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.3">
@@ -1153,7 +1181,7 @@
         <v>82</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>62</v>
@@ -1171,7 +1199,7 @@
         <v>601887712</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>60</v>
@@ -1195,7 +1223,7 @@
         <v>64</v>
       </c>
       <c r="P3" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>78</v>
@@ -1231,7 +1259,7 @@
         <v>78</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC3" s="6" t="s">
         <v>22</v>
@@ -1261,22 +1289,23 @@
         <v>76</v>
       </c>
       <c r="AL3" s="7">
-        <v>8777</v>
+        <f t="shared" ref="AL3:AL5" si="0">AN3/118.98</f>
+        <v>8900.6555723651036</v>
       </c>
       <c r="AM3" s="11">
-        <v>45976</v>
+        <v>45992</v>
       </c>
       <c r="AN3" s="7">
         <v>1059000</v>
       </c>
       <c r="AO3" s="11">
-        <v>45976</v>
+        <v>45992</v>
       </c>
       <c r="AP3" s="7">
         <v>1059000</v>
       </c>
       <c r="AQ3" s="11">
-        <v>45976</v>
+        <v>45992</v>
       </c>
       <c r="AR3" s="6" t="s">
         <v>78</v>
@@ -1321,128 +1350,362 @@
         <v>78</v>
       </c>
       <c r="BF3" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="6"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="7"/>
-      <c r="AQ4" s="11"/>
-      <c r="AR4" s="6"/>
-      <c r="AS4" s="6"/>
-      <c r="AT4" s="7"/>
-      <c r="AU4" s="11"/>
-      <c r="AV4" s="6"/>
-      <c r="AW4" s="6"/>
-      <c r="AX4" s="7"/>
-      <c r="AY4" s="11"/>
-      <c r="AZ4" s="6"/>
-      <c r="BA4" s="7"/>
-      <c r="BB4" s="11"/>
-      <c r="BC4" s="6"/>
-      <c r="BD4" s="7"/>
-      <c r="BE4" s="11"/>
-      <c r="BF4" s="6"/>
+      <c r="A4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="8">
+        <v>9721307957</v>
+      </c>
+      <c r="F4" s="7">
+        <v>385967590</v>
+      </c>
+      <c r="G4" s="7">
+        <v>601887712</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="7">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" s="7">
+        <v>53</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI4" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL4" s="7">
+        <f t="shared" si="0"/>
+        <v>8396.3691376701972</v>
+      </c>
+      <c r="AM4" s="11">
+        <v>45992</v>
+      </c>
+      <c r="AN4" s="7">
+        <v>999000</v>
+      </c>
+      <c r="AO4" s="11">
+        <v>45992</v>
+      </c>
+      <c r="AP4" s="7">
+        <v>1059001</v>
+      </c>
+      <c r="AQ4" s="11">
+        <v>45992</v>
+      </c>
+      <c r="AR4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB4" s="11">
+        <v>45963</v>
+      </c>
+      <c r="BC4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF4" s="12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="6"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="11"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="11"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="11"/>
-      <c r="AR5" s="6"/>
-      <c r="AS5" s="6"/>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="11"/>
-      <c r="AV5" s="6"/>
-      <c r="AW5" s="6"/>
-      <c r="AX5" s="7"/>
-      <c r="AY5" s="11"/>
-      <c r="AZ5" s="6"/>
-      <c r="BA5" s="7"/>
-      <c r="BB5" s="11"/>
-      <c r="BC5" s="6"/>
-      <c r="BD5" s="7"/>
-      <c r="BE5" s="11"/>
-      <c r="BF5" s="6"/>
+      <c r="A5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="8">
+        <v>9721307957</v>
+      </c>
+      <c r="F5" s="7">
+        <v>385967590</v>
+      </c>
+      <c r="G5" s="7">
+        <v>601887712</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="7">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="X5" s="7">
+        <v>53</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI5" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL5" s="7">
+        <f t="shared" si="0"/>
+        <v>9236.8465288283751</v>
+      </c>
+      <c r="AM5" s="11">
+        <v>45992</v>
+      </c>
+      <c r="AN5" s="7">
+        <v>1099000</v>
+      </c>
+      <c r="AO5" s="11">
+        <v>45992</v>
+      </c>
+      <c r="AP5" s="7">
+        <v>1059002</v>
+      </c>
+      <c r="AQ5" s="11">
+        <v>45992</v>
+      </c>
+      <c r="AR5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB5" s="11">
+        <v>45964</v>
+      </c>
+      <c r="BC5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF5" s="12" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1453,6 +1716,12 @@
     <hyperlink ref="H2" r:id="rId4" xr:uid="{61D04C27-BAFA-450B-9CF1-D58DBAF9AA7B}"/>
     <hyperlink ref="H3" r:id="rId5" xr:uid="{BBCBA58D-7C95-4FFB-8011-39A2CEF5C76C}"/>
     <hyperlink ref="BF3" r:id="rId6" xr:uid="{680FA770-8E5E-4506-BA13-7091F299E0AA}"/>
+    <hyperlink ref="J4" r:id="rId7" xr:uid="{484E7C41-F579-446E-8931-CAEF81033F7E}"/>
+    <hyperlink ref="J5" r:id="rId8" xr:uid="{AB4FB7D0-8D26-493C-BF6C-55C6CB13FC55}"/>
+    <hyperlink ref="H4" r:id="rId9" xr:uid="{D17B0D4E-B732-4D16-9516-FAA5600C1E5C}"/>
+    <hyperlink ref="H5" r:id="rId10" xr:uid="{EE8300C5-63AC-4872-B3DE-959289EAE1F9}"/>
+    <hyperlink ref="BF4" r:id="rId11" xr:uid="{FF97D9FB-51A5-49EC-BAAF-D673F37D6902}"/>
+    <hyperlink ref="BF5" r:id="rId12" xr:uid="{6AA79271-5D1C-4827-A454-B89415121D5A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dane_wzor.xlsx
+++ b/dane_wzor.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2786AF-8803-4BC6-BC4A-289CE0BBD5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30143351-B668-4C17-A4DC-42AA732545A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="384" windowWidth="23016" windowHeight="12216" xr2:uid="{336D2583-5C4C-4C42-9206-61D546232E49}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{336D2583-5C4C-4C42-9206-61D546232E49}"/>
   </bookViews>
   <sheets>
     <sheet name="wzorcowy zakres danych" sheetId="7" r:id="rId1"/>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA33353A-1A07-421F-B982-7CDBB172178E}">
   <dimension ref="A1:BF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="BK5" sqref="BK5"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="AP2" sqref="AP2:AP5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1125,6 +1125,7 @@
         <v>45992</v>
       </c>
       <c r="AP2" s="7">
+        <f>AN2</f>
         <v>1099000</v>
       </c>
       <c r="AQ2" s="11">
@@ -1302,6 +1303,7 @@
         <v>45992</v>
       </c>
       <c r="AP3" s="7">
+        <f t="shared" ref="AP3:AP5" si="1">AN3</f>
         <v>1059000</v>
       </c>
       <c r="AQ3" s="11">
@@ -1479,7 +1481,8 @@
         <v>45992</v>
       </c>
       <c r="AP4" s="7">
-        <v>1059001</v>
+        <f t="shared" si="1"/>
+        <v>999000</v>
       </c>
       <c r="AQ4" s="11">
         <v>45992</v>
@@ -1656,7 +1659,8 @@
         <v>45992</v>
       </c>
       <c r="AP5" s="7">
-        <v>1059002</v>
+        <f t="shared" si="1"/>
+        <v>1099000</v>
       </c>
       <c r="AQ5" s="11">
         <v>45992</v>
